--- a/ocms/src/test/resources/DownloadedFiles/Fax Line Config (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Fax Line Config (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t xml:space="preserve">Fax Line</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">All type of Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
   </si>
 </sst>
 </file>
@@ -372,7 +369,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
